--- a/data/metadata/Informe-02-020004-A-TC.xlsx
+++ b/data/metadata/Informe-02-020004-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>comarca</t>
   </si>
@@ -37,7 +37,7 @@
     <t>iaest-measure:entidad-singular</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>iaest-measure:nucleo</t>
@@ -46,13 +46,7 @@
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
-  </si>
-  <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
 </sst>
 </file>
@@ -157,7 +151,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -165,19 +159,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-02-020004-A-TC.xlsx
+++ b/data/metadata/Informe-02-020004-A-TC.xlsx
@@ -13,22 +13,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
-    <t>comarca</t>
+    <t>Municipio</t>
   </si>
   <si>
-    <t>municipio</t>
+    <t>Entidad singular</t>
   </si>
   <si>
-    <t>entidad-singular</t>
+    <t>Núcleo</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Comarca</t>
   </si>
   <si>
-    <t>nucleo</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
+    <t>Provincia</t>
   </si>
   <si>
     <t>iaest-measure:municipio</t>
@@ -37,16 +34,19 @@
     <t>iaest-measure:entidad-singular</t>
   </si>
   <si>
-    <t>iaest-measure:provincia</t>
+    <t>iaest-measure:nucleo</t>
   </si>
   <si>
-    <t>iaest-measure:nucleo</t>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>xsd:int</t>
+    <t>xsd:string</t>
   </si>
 </sst>
 </file>

--- a/data/metadata/Informe-02-020004-A-TC.xlsx
+++ b/data/metadata/Informe-02-020004-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Municipio</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Provincia</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>municipio</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>provincia</t>
   </si>
   <si>
-    <t>ano</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>iaest-dimension:nucleo</t>
   </si>
   <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
   </si>
   <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-entidad-singular.xlsx</t>
@@ -89,16 +77,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,20 +94,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,23 +119,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="32.29"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -166,96 +146,81 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
